--- a/output/frat/depth_1/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_1/frat_3_conceptnet_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\depth_1\updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/depth_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FFC03E-0DD4-442A-BA8F-B3718C78A21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E758C-E1DD-8444-9340-9AA7A073CEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="11670" windowWidth="9820" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,15 +628,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="93.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="93.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -682,7 +682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -702,7 +702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -722,7 +722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -742,7 +742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -762,7 +762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -782,7 +782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -802,7 +802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -862,7 +862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -882,7 +882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
         <v>66</v>
       </c>

--- a/output/frat/depth_1/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_1/frat_3_conceptnet_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/depth_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E758C-E1DD-8444-9340-9AA7A073CEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FC9EF-9E83-8F4C-94B8-F641B2DD7E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>FrAt</t>
   </si>
@@ -34,6 +34,9 @@
     <t>has_solution</t>
   </si>
   <si>
+    <t>has_solution_tuple</t>
+  </si>
+  <si>
     <t>relation</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>question, reply, solution</t>
   </si>
   <si>
+    <t>sensitive, sob, weep</t>
+  </si>
+  <si>
     <t>antlers, doe, fawn</t>
   </si>
   <si>
@@ -58,33 +64,141 @@
     <t>colt, mare, unicorn</t>
   </si>
   <si>
+    <t>crown, royaly, throne</t>
+  </si>
+  <si>
+    <t>algebra, calculus, trigonometry</t>
+  </si>
+  <si>
+    <t>pedal, pull, shove</t>
+  </si>
+  <si>
+    <t>clockwise, left, wrong</t>
+  </si>
+  <si>
+    <t>flu, nauseous, virus</t>
+  </si>
+  <si>
     <t>astronomy, moon, twinkle</t>
   </si>
   <si>
     <t>bait, pond, tuna</t>
   </si>
   <si>
+    <t>bandaid, trim, wound</t>
+  </si>
+  <si>
     <t>gravity, low, up</t>
   </si>
   <si>
+    <t>emergency, rapid, slow</t>
+  </si>
+  <si>
     <t>brawl, debate, soldier</t>
   </si>
   <si>
+    <t>birds, frog, kite</t>
+  </si>
+  <si>
     <t>finger, glove, palm</t>
   </si>
   <si>
+    <t>bed, darkness, sedative</t>
+  </si>
+  <si>
     <t>discuss, gossip, telephone</t>
   </si>
   <si>
+    <t>fangs, gums, wolf</t>
+  </si>
+  <si>
+    <t>marsh, saliva, slippery</t>
+  </si>
+  <si>
+    <t>dictionary, verse, vocabulary</t>
+  </si>
+  <si>
+    <t>fault, incorrect, unjust</t>
+  </si>
+  <si>
+    <t>murder, operate, vein</t>
+  </si>
+  <si>
+    <t>empire, moat, princess</t>
+  </si>
+  <si>
     <t>bench, sofa, stool</t>
   </si>
   <si>
+    <t>beaker, flask, science</t>
+  </si>
+  <si>
+    <t>adults, development, yo-yo</t>
+  </si>
+  <si>
+    <t>cemetery, coma, noose</t>
+  </si>
+  <si>
+    <t>exam, scare, terror</t>
+  </si>
+  <si>
     <t>hand, toe, trigger</t>
   </si>
   <si>
+    <t>angel, church, faith</t>
+  </si>
+  <si>
+    <t>body, commander, skull</t>
+  </si>
+  <si>
+    <t>cello, scalpel, trumpet</t>
+  </si>
+  <si>
+    <t>desk, quill, stapler</t>
+  </si>
+  <si>
+    <t>arrest, badge, deputy</t>
+  </si>
+  <si>
+    <t>electron, inertia, zest</t>
+  </si>
+  <si>
+    <t>diet, strain, sweat</t>
+  </si>
+  <si>
+    <t>assault, cop, murder</t>
+  </si>
+  <si>
+    <t>drill, grave, spike</t>
+  </si>
+  <si>
+    <t>care, tactful, willing</t>
+  </si>
+  <si>
+    <t>midnight, saturn, wolf</t>
+  </si>
+  <si>
+    <t>bloom, opportunity, split</t>
+  </si>
+  <si>
+    <t>accomplished, dolphin, sly</t>
+  </si>
+  <si>
+    <t>duck, sardine, sinker</t>
+  </si>
+  <si>
+    <t>europe, mushroom, pack</t>
+  </si>
+  <si>
+    <t>fierce, steel, warrior</t>
+  </si>
+  <si>
     <t xml:space="preserve">answer </t>
   </si>
   <si>
+    <t>cry</t>
+  </si>
+  <si>
     <t xml:space="preserve">deer </t>
   </si>
   <si>
@@ -94,49 +208,160 @@
     <t xml:space="preserve">horse </t>
   </si>
   <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick </t>
+  </si>
+  <si>
     <t>star</t>
   </si>
   <si>
     <t>fish</t>
   </si>
   <si>
+    <t xml:space="preserve">cut </t>
+  </si>
+  <si>
     <t>down</t>
   </si>
   <si>
+    <t>fast</t>
+  </si>
+  <si>
     <t xml:space="preserve">fight </t>
   </si>
   <si>
+    <t>fly</t>
+  </si>
+  <si>
     <t xml:space="preserve">hand </t>
   </si>
   <si>
+    <t>sleep</t>
+  </si>
+  <si>
     <t>talk</t>
   </si>
   <si>
+    <t xml:space="preserve">teeth </t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
     <t>chair</t>
   </si>
   <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>finger</t>
   </si>
   <si>
-    <t>statement, answer</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>answer, statement</t>
   </si>
   <si>
     <t>deer</t>
   </si>
   <si>
-    <t>plant, flower</t>
+    <t>flower, plant</t>
   </si>
   <si>
     <t>horse</t>
   </si>
   <si>
-    <t>celestial_body, star</t>
+    <t>pure_mathematics, mathematics, geometry</t>
+  </si>
+  <si>
+    <t>star, celestial_body</t>
   </si>
   <si>
     <t>fish, water</t>
   </si>
   <si>
-    <t>ground, hill, down</t>
+    <t>ground, down, hill</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
   <si>
     <t>fight</t>
@@ -145,64 +370,76 @@
     <t>hand</t>
   </si>
   <si>
-    <t>chair, sitting, seat, furniture</t>
-  </si>
-  <si>
-    <t>question is "antonym, distinct_from, related_to" to statement | question is "distinct_from, related_to, desires, antonym" to answer | reply is "related_to" to statement | reply is "synonym, is_a, antonym, related_to" to answer | solution is "is_a" to statement | solution is "synonym, related_to" to answer</t>
-  </si>
-  <si>
-    <t>antlers is "related_to" to deer | doe is "is_a, related_to" to deer | fawn is "is_a, related_to" to deer</t>
-  </si>
-  <si>
-    <t>bud is "related_to" to plant | bud is "is_a, related_to" to flower | dandelion is "related_to" to plant | dandelion is "related_to, is_a" to flower | petals is "related_to" to plant | petals is "related_to" to flower</t>
-  </si>
-  <si>
-    <t>colt is "related_to, is_a" to horse | mare is "related_to, part_of, is_a" to horse | unicorn is "related_to" to horse</t>
-  </si>
-  <si>
-    <t>astronomy is "has_context" to celestial_body | astronomy is "has_context, related_to" to star | moon is "related_to" to celestial_body | moon is "related_to, distinct_from" to star | twinkle is "has_context" to celestial_body | twinkle is "related_to" to star</t>
-  </si>
-  <si>
-    <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "at_location, used_for, related_to" to fish | pond is "related_to, has_a" to water | tuna is "related_to, is_a" to fish | tuna is "at_location" to water</t>
-  </si>
-  <si>
-    <t>gravity is "related_to" to ground | gravity is "related_to" to hill | gravity is "related_to" to down | low is "related_to" to ground | low is "related_to" to hill | low is "related_to" to down | up is "related_to" to ground | up is "related_to" to hill | up is "antonym, distinct_from, related_to" to down</t>
-  </si>
-  <si>
-    <t>brawl is "related_to, is_a" to fight | debate is "related_to" to fight | soldier is "desires, used_for, related_to" to fight</t>
-  </si>
-  <si>
-    <t>finger is "at_location, part_of, related_to" to hand | glove is "related_to" to hand | palm is "related_to, part_of" to hand</t>
-  </si>
-  <si>
-    <t>discuss is "related_to" to talk | gossip is "is_a, related_to" to talk | telephone is "related_to" to talk</t>
-  </si>
-  <si>
-    <t>bench is "related_to, distinct_from" to chair | bench is "related_to" to sitting | bench is "is_a, used_for, related_to" to seat | bench is "is_a" to furniture | sofa is "is_a, related_to, distinct_from" to chair | sofa is "related_to" to sitting | sofa is "is_a, used_for, related_to" to seat | sofa is "is_a, related_to, has_context" to furniture | stool is "is_a, related_to, etymologically_related_to, antonym, synonym" to chair | stool is "related_to" to sitting | stool is "is_a, related_to" to seat | stool is "is_a" to furniture</t>
-  </si>
-  <si>
-    <t>hand is "part_of, at_location, related_to" to finger | toe is "antonym, distinct_from, synonym, related_to, similar_to" to finger | trigger is "related_to" to finger</t>
-  </si>
-  <si>
-    <t>question is "antonym" to statement | question is "distinct_from" to statement | question is "related_to" to statement | question is "antonym" to answer | question is "desires" to answer | question is "distinct_from" to answer | question is "related_to" to answer | reply is "related_to" to statement | reply is "antonym" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | solution is "is_a" to statement | solution is "related_to" to answer | solution is "related_to" to answer | answer is "antonym" to question | answer is "distinct_from" to question | answer is "related_to" to question | answer is "related_to" to question | answer is "related_to" to reply | answer is "related_to" to reply | answer is "synonym" to reply | answer is "synonym" to reply | answer is "is_a" to reply | answer is "related_to" to solution | answer is "related_to" to solution | answer is "synonym" to solution</t>
+    <t>furniture, sitting, seat, chair</t>
+  </si>
+  <si>
+    <t>laboratory, lab</t>
+  </si>
+  <si>
+    <t>religious</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>question is "related_to, desires, distinct_from, antonym" to answer | question is "related_to, distinct_from, antonym" to statement | reply is "synonym, antonym, related_to, is_a" to answer | reply is "related_to" to statement | solution is "related_to, synonym" to answer | solution is "is_a" to statement</t>
+  </si>
+  <si>
+    <t>antlers is "related_to" to deer | doe is "is_a, related_to" to deer | fawn is "related_to, is_a" to deer</t>
+  </si>
+  <si>
+    <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | dandelion is "is_a, related_to" to flower | dandelion is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
+  </si>
+  <si>
+    <t>colt is "is_a, related_to" to horse | mare is "part_of, is_a, related_to" to horse | unicorn is "related_to" to horse</t>
+  </si>
+  <si>
+    <t>astronomy is "related_to, has_context" to star | astronomy is "has_context" to celestial_body | moon is "related_to, distinct_from" to star | moon is "related_to" to celestial_body | twinkle is "related_to" to star | twinkle is "has_context" to celestial_body</t>
+  </si>
+  <si>
+    <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "used_for, related_to, at_location" to fish | pond is "related_to, has_a" to water | tuna is "is_a, related_to" to fish | tuna is "at_location" to water</t>
+  </si>
+  <si>
+    <t>gravity is "related_to" to ground | gravity is "related_to" to down | gravity is "related_to" to hill | low is "related_to" to ground | low is "related_to" to down | low is "related_to" to hill | up is "related_to" to ground | up is "distinct_from, antonym, related_to" to down | up is "related_to" to hill</t>
+  </si>
+  <si>
+    <t>brawl is "is_a, related_to" to fight | debate is "related_to" to fight | soldier is "used_for, related_to, desires" to fight</t>
+  </si>
+  <si>
+    <t>finger is "related_to, at_location, part_of" to hand | glove is "related_to" to hand | palm is "related_to, part_of" to hand</t>
+  </si>
+  <si>
+    <t>discuss is "related_to" to talk | gossip is "related_to, is_a" to talk | telephone is "related_to" to talk</t>
+  </si>
+  <si>
+    <t>bench is "is_a" to furniture | bench is "related_to" to sitting | bench is "used_for, related_to, is_a" to seat | bench is "related_to, distinct_from" to chair | sofa is "has_context, related_to, is_a" to furniture | sofa is "related_to" to sitting | sofa is "used_for, related_to, is_a" to seat | sofa is "related_to, is_a, distinct_from" to chair | stool is "is_a" to furniture | stool is "related_to" to sitting | stool is "is_a, related_to" to seat | stool is "synonym, antonym, related_to, etymologically_related_to, is_a" to chair</t>
+  </si>
+  <si>
+    <t>hand is "related_to, part_of, at_location" to finger | toe is "related_to, synonym, distinct_from, similar_to, antonym" to finger | trigger is "related_to" to finger</t>
+  </si>
+  <si>
+    <t>body is "at_location, antonym, related_to, distinct_from, part_of" to head | commander is "synonym" to head | skull is "related_to, part_of" to head</t>
+  </si>
+  <si>
+    <t>question is "antonym" to answer | question is "desires" to answer | question is "distinct_from" to answer | question is "related_to" to answer | question is "antonym" to statement | question is "distinct_from" to statement | question is "related_to" to statement | reply is "antonym" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "related_to" to statement | solution is "related_to" to answer | solution is "related_to" to answer | solution is "is_a" to statement | answer is "antonym" to question | answer is "distinct_from" to question | answer is "related_to" to question | answer is "related_to" to question | answer is "related_to" to reply | answer is "related_to" to reply | answer is "synonym" to reply | answer is "synonym" to reply | answer is "is_a" to reply | answer is "related_to" to solution | answer is "related_to" to solution | answer is "synonym" to solution</t>
   </si>
   <si>
     <t>doe is "related_to" to deer | doe is "related_to" to deer | doe is "is_a" to deer | doe is "is_a" to deer | fawn is "is_a" to deer | fawn is "related_to" to deer | fawn is "related_to" to deer | fawn is "is_a" to deer | fawn is "is_a" to deer | fawn is "is_a" to deer | deer is "related_to" to antlers | deer is "related_to" to doe | deer is "related_to" to fawn</t>
   </si>
   <si>
-    <t>bud is "related_to" to plant | bud is "related_to" to flower | bud is "is_a" to flower | dandelion is "related_to" to plant | dandelion is "related_to" to plant | dandelion is "is_a" to flower | dandelion is "related_to" to flower | dandelion is "related_to" to flower | plant is "related_to" to petals | flower is "related_to" to bud | flower is "related_to" to petals</t>
+    <t>bud is "related_to" to flower | bud is "is_a" to flower | bud is "related_to" to plant | dandelion is "is_a" to flower | dandelion is "related_to" to flower | dandelion is "related_to" to flower | dandelion is "related_to" to plant | dandelion is "related_to" to plant | flower is "related_to" to bud | flower is "related_to" to petals | plant is "related_to" to petals</t>
   </si>
   <si>
     <t>colt is "related_to" to horse | colt is "related_to" to horse | colt is "is_a" to horse | colt is "is_a" to horse | mare is "is_a" to horse | mare is "related_to" to horse | mare is "related_to" to horse | mare is "is_a" to horse | mare is "part_of" to horse | mare is "is_a" to horse | unicorn is "related_to" to horse | horse is "related_to" to colt | horse is "related_to" to colt | horse is "related_to" to mare | horse is "related_to" to mare | horse is "related_to" to mare | horse is "related_to" to unicorn</t>
   </si>
   <si>
-    <t>astronomy is "related_to" to star | moon is "related_to" to celestial_body | moon is "related_to" to star | twinkle is "has_context" to celestial_body | celestial_body is "has_context" to astronomy | celestial_body is "related_to" to moon | star is "related_to" to astronomy | star is "has_context" to astronomy | star is "distinct_from" to moon | star is "related_to" to moon | star is "related_to" to twinkle</t>
+    <t>astronomy is "related_to" to star | moon is "related_to" to star | moon is "related_to" to celestial_body | twinkle is "has_context" to celestial_body | star is "related_to" to astronomy | star is "has_context" to astronomy | star is "distinct_from" to moon | star is "related_to" to moon | star is "related_to" to twinkle | celestial_body is "has_context" to astronomy | celestial_body is "related_to" to moon</t>
   </si>
   <si>
     <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "related_to" to fish | pond is "used_for" to fish | pond is "has_a" to water | pond is "related_to" to water | pond is "related_to" to water | tuna is "related_to" to fish | tuna is "is_a" to fish | tuna is "is_a" to fish | tuna is "is_a" to fish | tuna is "at_location" to water | fish is "related_to" to bait | fish is "at_location" to pond | fish is "related_to" to tuna</t>
   </si>
   <si>
-    <t>gravity is "related_to" to down | low is "related_to" to ground | low is "related_to" to ground | low is "related_to" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "distinct_from" to down | up is "related_to" to down | ground is "related_to" to gravity | ground is "related_to" to low | ground is "related_to" to up | hill is "related_to" to gravity | hill is "related_to" to low | hill is "related_to" to up | down is "related_to" to low | down is "related_to" to low | down is "related_to" to low | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "distinct_from" to up | down is "related_to" to up</t>
+    <t>gravity is "related_to" to down | low is "related_to" to ground | low is "related_to" to ground | low is "related_to" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "distinct_from" to down | up is "related_to" to down | ground is "related_to" to gravity | ground is "related_to" to low | ground is "related_to" to up | down is "related_to" to low | down is "related_to" to low | down is "related_to" to low | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "distinct_from" to up | down is "related_to" to up | hill is "related_to" to gravity | hill is "related_to" to low | hill is "related_to" to up</t>
   </si>
   <si>
     <t>brawl is "related_to" to fight | brawl is "related_to" to fight | brawl is "related_to" to fight | brawl is "is_a" to fight | debate is "related_to" to fight | soldier is "desires" to fight | soldier is "related_to" to fight | soldier is "used_for" to fight | fight is "related_to" to brawl</t>
@@ -214,13 +451,16 @@
     <t>gossip is "related_to" to talk | telephone is "related_to" to talk | talk is "related_to" to discuss | talk is "related_to" to discuss | talk is "related_to" to discuss | talk is "related_to" to gossip | talk is "related_to" to gossip | talk is "is_a" to gossip</t>
   </si>
   <si>
-    <t>bench is "distinct_from" to chair | bench is "related_to" to chair | bench is "related_to" to sitting | bench is "related_to" to seat | bench is "related_to" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "used_for" to seat | bench is "is_a" to furniture | sofa is "is_a" to chair | sofa is "related_to" to sitting | sofa is "related_to" to seat | sofa is "is_a" to seat | sofa is "is_a" to seat | sofa is "used_for" to seat | sofa is "has_context" to furniture | sofa is "related_to" to furniture | sofa is "is_a" to furniture | stool is "related_to" to chair | stool is "related_to" to chair | stool is "related_to" to sitting | stool is "is_a" to seat | stool is "related_to" to seat | stool is "related_to" to seat | stool is "is_a" to seat | stool is "is_a" to seat | stool is "is_a" to furniture | chair is "related_to" to bench | chair is "related_to" to bench | chair is "distinct_from" to sofa | chair is "related_to" to sofa | chair is "related_to" to sofa | chair is "antonym" to stool | chair is "etymologically_related_to" to stool | chair is "is_a" to stool | chair is "related_to" to stool | chair is "related_to" to stool | chair is "synonym" to stool | seat is "related_to" to bench | seat is "related_to" to bench | seat is "related_to" to sofa | seat is "related_to" to stool | seat is "related_to" to stool</t>
+    <t>bench is "is_a" to furniture | bench is "related_to" to sitting | bench is "related_to" to seat | bench is "related_to" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "used_for" to seat | bench is "distinct_from" to chair | bench is "related_to" to chair | sofa is "has_context" to furniture | sofa is "related_to" to furniture | sofa is "is_a" to furniture | sofa is "related_to" to sitting | sofa is "related_to" to seat | sofa is "is_a" to seat | sofa is "is_a" to seat | sofa is "used_for" to seat | sofa is "is_a" to chair | stool is "is_a" to furniture | stool is "related_to" to sitting | stool is "is_a" to seat | stool is "related_to" to seat | stool is "related_to" to seat | stool is "is_a" to seat | stool is "is_a" to seat | stool is "related_to" to chair | stool is "related_to" to chair | seat is "related_to" to bench | seat is "related_to" to bench | seat is "related_to" to sofa | seat is "related_to" to stool | seat is "related_to" to stool | chair is "related_to" to bench | chair is "related_to" to bench | chair is "distinct_from" to sofa | chair is "related_to" to sofa | chair is "related_to" to sofa | chair is "antonym" to stool | chair is "etymologically_related_to" to stool | chair is "is_a" to stool | chair is "related_to" to stool | chair is "related_to" to stool | chair is "synonym" to stool</t>
   </si>
   <si>
     <t>hand is "related_to" to finger | toe is "antonym" to finger | toe is "related_to" to finger | toe is "similar_to" to finger | trigger is "related_to" to finger | finger is "at_location" to hand | finger is "part_of" to hand | finger is "part_of" to hand | finger is "related_to" to hand | finger is "related_to" to hand | finger is "part_of" to hand | finger is "antonym" to toe | finger is "distinct_from" to toe | finger is "distinct_from" to toe | finger is "related_to" to toe | finger is "synonym" to toe</t>
   </si>
   <si>
-    <t>25.0%</t>
+    <t>body is "antonym" to head | body is "distinct_from" to head | body is "related_to" to head | skull is "related_to" to head | skull is "related_to" to head | skull is "part_of" to head | head is "antonym" to body | head is "at_location" to body | head is "distinct_from" to body | head is "related_to" to body | head is "related_to" to body | head is "part_of" to body | head is "synonym" to commander | head is "related_to" to skull</t>
+  </si>
+  <si>
+    <t>27.08%</t>
   </si>
 </sst>
 </file>
@@ -622,21 +862,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="93.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,250 +900,817 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>66</v>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
